--- a/Test-case.xlsx
+++ b/Test-case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Идентификатор</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Дефект</t>
-  </si>
-  <si>
-    <t>л</t>
   </si>
 </sst>
 </file>
@@ -454,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,11 +558,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
